--- a/试用期员工绩效目标管理-v1.1-李凯泉-20201130.xlsx
+++ b/试用期员工绩效目标管理-v1.1-李凯泉-20201130.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15120" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20910" windowHeight="9135" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="各项目部经理目标管理卡" sheetId="1" state="hidden" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>软件分中心各项目部经理目标管理卡填写模板</t>
   </si>
@@ -524,10 +524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -610,30 +610,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,6 +683,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -653,16 +714,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,88 +739,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -787,13 +787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,181 +835,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,6 +1021,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1065,10 +1089,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1095,74 +1139,42 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,41 +1190,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,16 +1213,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,152 +1251,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1421,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1439,84 +1442,78 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1532,7 +1529,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1541,66 +1541,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1872,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1880,36 +1877,36 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="20.7596153846154" style="41" customWidth="1"/>
-    <col min="3" max="3" width="37" style="41" customWidth="1"/>
-    <col min="4" max="4" width="41.625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="4.5" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20.7583333333333" style="40" customWidth="1"/>
+    <col min="3" max="3" width="37" style="40" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.75" customHeight="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:6">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="49"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="46" t="s">
@@ -1924,7 +1921,7 @@
       <c r="D3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="48" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="47" t="s">
@@ -1944,14 +1941,14 @@
       <c r="D4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="48">
         <v>0.05</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="1:6">
+    <row r="5" ht="57" spans="1:6">
       <c r="A5" s="46">
         <v>2</v>
       </c>
@@ -1964,14 +1961,14 @@
       <c r="D5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="48">
         <v>0.05</v>
       </c>
       <c r="F5" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="72" spans="1:6">
+    <row r="6" ht="85.5" spans="1:6">
       <c r="A6" s="46">
         <v>3</v>
       </c>
@@ -1984,18 +1981,18 @@
       <c r="D6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <v>0.05</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="84" spans="1:6">
+    <row r="7" ht="85.5" spans="1:6">
       <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="47" t="s">
@@ -2004,14 +2001,14 @@
       <c r="D7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="48">
         <v>0.45</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="60" spans="1:6">
+    <row r="8" ht="57" spans="1:6">
       <c r="A8" s="46">
         <v>5</v>
       </c>
@@ -2024,7 +2021,7 @@
       <c r="D8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="48">
         <v>0.05</v>
       </c>
       <c r="F8" s="47" t="s">
@@ -2044,14 +2041,14 @@
       <c r="D9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="48">
         <v>0.05</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="96" spans="1:6">
+    <row r="10" ht="99.75" spans="1:6">
       <c r="A10" s="46">
         <v>7</v>
       </c>
@@ -2064,14 +2061,14 @@
       <c r="D10" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <v>0.05</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="96" spans="1:6">
+    <row r="11" ht="99.75" spans="1:6">
       <c r="A11" s="46">
         <v>8</v>
       </c>
@@ -2084,14 +2081,14 @@
       <c r="D11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="48">
         <v>0.05</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="96" spans="1:6">
+    <row r="12" ht="99.75" spans="1:6">
       <c r="A12" s="46">
         <v>9</v>
       </c>
@@ -2104,14 +2101,14 @@
       <c r="D12" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="48">
         <v>0.05</v>
       </c>
       <c r="F12" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" ht="108" spans="1:6">
+    <row r="13" ht="114" spans="1:6">
       <c r="A13" s="46">
         <v>10</v>
       </c>
@@ -2124,14 +2121,14 @@
       <c r="D13" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="48">
         <v>0.05</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="48" spans="1:6">
+    <row r="14" ht="57" spans="1:6">
       <c r="A14" s="46">
         <v>11</v>
       </c>
@@ -2144,7 +2141,7 @@
       <c r="D14" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="48">
         <v>0.1</v>
       </c>
       <c r="F14" s="47" t="s">
@@ -2164,7 +2161,7 @@
       <c r="D15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="48">
         <v>0</v>
       </c>
       <c r="F15" s="47" t="s">
@@ -2184,23 +2181,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="57.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="57.5166666666667" customWidth="1"/>
     <col min="3" max="3" width="46.625" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
-    <col min="6" max="6" width="15.3653846153846" customWidth="1"/>
+    <col min="6" max="6" width="15.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:6">
@@ -2225,7 +2222,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="18" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2244,154 +2241,154 @@
       <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="34" spans="1:6">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="34" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="17" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" ht="34" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" ht="68" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="55" customHeight="1" spans="1:6">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" ht="40" customHeight="1" spans="1:6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" ht="62.45" customHeight="1" spans="1:6">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>

--- a/试用期员工绩效目标管理-v1.1-李凯泉-20201130.xlsx
+++ b/试用期员工绩效目标管理-v1.1-李凯泉-20201130.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20910" windowHeight="9135" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20910" windowHeight="9300" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="各项目部经理目标管理卡" sheetId="1" state="hidden" r:id="rId1"/>
@@ -524,10 +524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -610,42 +610,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,6 +655,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -690,14 +714,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -714,6 +730,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -722,43 +753,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -799,187 +799,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,6 +1145,17 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1171,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,21 +1217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1227,22 +1232,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,148 +1251,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2187,7 +2187,7 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
